--- a/data/sum_stats_post.xlsx
+++ b/data/sum_stats_post.xlsx
@@ -978,289 +978,289 @@
         <v>95</v>
       </c>
       <c r="B2">
-        <v>6436</v>
+        <v>6363</v>
       </c>
       <c r="C2">
-        <v>6436</v>
+        <v>6363</v>
       </c>
       <c r="D2">
-        <v>6436</v>
+        <v>6363</v>
       </c>
       <c r="E2">
-        <v>6436</v>
+        <v>6363</v>
       </c>
       <c r="F2">
-        <v>6436</v>
+        <v>6363</v>
       </c>
       <c r="G2">
-        <v>6436</v>
+        <v>6363</v>
       </c>
       <c r="H2">
-        <v>6436</v>
+        <v>6363</v>
       </c>
       <c r="I2">
-        <v>6436</v>
+        <v>6363</v>
       </c>
       <c r="J2">
-        <v>6436</v>
+        <v>6363</v>
       </c>
       <c r="K2">
-        <v>6436</v>
+        <v>6363</v>
       </c>
       <c r="L2">
-        <v>6436</v>
+        <v>6363</v>
       </c>
       <c r="M2">
-        <v>6436</v>
+        <v>6363</v>
       </c>
       <c r="N2">
-        <v>6436</v>
+        <v>6363</v>
       </c>
       <c r="O2">
-        <v>6436</v>
+        <v>6363</v>
       </c>
       <c r="P2">
-        <v>6436</v>
+        <v>6363</v>
       </c>
       <c r="Q2">
-        <v>6436</v>
+        <v>6363</v>
       </c>
       <c r="R2">
-        <v>6436</v>
+        <v>6363</v>
       </c>
       <c r="S2">
-        <v>6436</v>
+        <v>6363</v>
       </c>
       <c r="T2">
-        <v>6436</v>
+        <v>6363</v>
       </c>
       <c r="U2">
-        <v>6436</v>
+        <v>6363</v>
       </c>
       <c r="V2">
-        <v>6436</v>
+        <v>6363</v>
       </c>
       <c r="W2">
-        <v>6436</v>
+        <v>6363</v>
       </c>
       <c r="X2">
-        <v>6436</v>
+        <v>6363</v>
       </c>
       <c r="Y2">
-        <v>6436</v>
+        <v>6363</v>
       </c>
       <c r="Z2">
-        <v>6436</v>
+        <v>6363</v>
       </c>
       <c r="AA2">
-        <v>6436</v>
+        <v>6363</v>
       </c>
       <c r="AB2">
-        <v>6436</v>
+        <v>6363</v>
       </c>
       <c r="AC2">
-        <v>6436</v>
+        <v>6363</v>
       </c>
       <c r="AD2">
-        <v>6436</v>
+        <v>6363</v>
       </c>
       <c r="AE2">
-        <v>6436</v>
+        <v>6363</v>
       </c>
       <c r="AF2">
-        <v>6436</v>
+        <v>6363</v>
       </c>
       <c r="AG2">
-        <v>6436</v>
+        <v>6363</v>
       </c>
       <c r="AH2">
-        <v>6436</v>
+        <v>6363</v>
       </c>
       <c r="AI2">
-        <v>6436</v>
+        <v>6363</v>
       </c>
       <c r="AJ2">
-        <v>6436</v>
+        <v>6363</v>
       </c>
       <c r="AK2">
-        <v>6436</v>
+        <v>6363</v>
       </c>
       <c r="AL2">
-        <v>6436</v>
+        <v>6363</v>
       </c>
       <c r="AM2">
-        <v>6436</v>
+        <v>6363</v>
       </c>
       <c r="AN2">
-        <v>6436</v>
+        <v>6363</v>
       </c>
       <c r="AO2">
-        <v>6436</v>
+        <v>6363</v>
       </c>
       <c r="AP2">
-        <v>6436</v>
+        <v>6363</v>
       </c>
       <c r="AQ2">
-        <v>6436</v>
+        <v>6363</v>
       </c>
       <c r="AR2">
-        <v>6436</v>
+        <v>6363</v>
       </c>
       <c r="AS2">
-        <v>6436</v>
+        <v>6363</v>
       </c>
       <c r="AT2">
-        <v>6436</v>
+        <v>6363</v>
       </c>
       <c r="AU2">
-        <v>6436</v>
+        <v>6363</v>
       </c>
       <c r="AV2">
-        <v>6436</v>
+        <v>6363</v>
       </c>
       <c r="AW2">
-        <v>6436</v>
+        <v>6363</v>
       </c>
       <c r="AX2">
-        <v>6436</v>
+        <v>6363</v>
       </c>
       <c r="AY2">
-        <v>6436</v>
+        <v>6363</v>
       </c>
       <c r="AZ2">
-        <v>6436</v>
+        <v>6363</v>
       </c>
       <c r="BA2">
-        <v>6436</v>
+        <v>6363</v>
       </c>
       <c r="BB2">
-        <v>6436</v>
+        <v>6363</v>
       </c>
       <c r="BC2">
-        <v>6436</v>
+        <v>6363</v>
       </c>
       <c r="BD2">
-        <v>6436</v>
+        <v>6363</v>
       </c>
       <c r="BE2">
-        <v>6436</v>
+        <v>6363</v>
       </c>
       <c r="BF2">
-        <v>6436</v>
+        <v>6363</v>
       </c>
       <c r="BG2">
-        <v>6436</v>
+        <v>6363</v>
       </c>
       <c r="BH2">
-        <v>6436</v>
+        <v>6363</v>
       </c>
       <c r="BI2">
-        <v>6436</v>
+        <v>6363</v>
       </c>
       <c r="BJ2">
-        <v>6436</v>
+        <v>6363</v>
       </c>
       <c r="BK2">
-        <v>6436</v>
+        <v>6363</v>
       </c>
       <c r="BL2">
-        <v>6436</v>
+        <v>6363</v>
       </c>
       <c r="BM2">
-        <v>6436</v>
+        <v>6363</v>
       </c>
       <c r="BN2">
-        <v>6436</v>
+        <v>6363</v>
       </c>
       <c r="BO2">
-        <v>6436</v>
+        <v>6363</v>
       </c>
       <c r="BP2">
-        <v>6436</v>
+        <v>6363</v>
       </c>
       <c r="BQ2">
-        <v>6436</v>
+        <v>6363</v>
       </c>
       <c r="BR2">
-        <v>6436</v>
+        <v>6363</v>
       </c>
       <c r="BS2">
-        <v>6436</v>
+        <v>6363</v>
       </c>
       <c r="BT2">
-        <v>6436</v>
+        <v>6363</v>
       </c>
       <c r="BU2">
-        <v>6436</v>
+        <v>6363</v>
       </c>
       <c r="BV2">
-        <v>6436</v>
+        <v>6363</v>
       </c>
       <c r="BW2">
-        <v>6436</v>
+        <v>6363</v>
       </c>
       <c r="BX2">
-        <v>6436</v>
+        <v>6363</v>
       </c>
       <c r="BY2">
-        <v>6436</v>
+        <v>6363</v>
       </c>
       <c r="BZ2">
-        <v>6436</v>
+        <v>6363</v>
       </c>
       <c r="CA2">
-        <v>6436</v>
+        <v>6363</v>
       </c>
       <c r="CB2">
-        <v>6436</v>
+        <v>6363</v>
       </c>
       <c r="CC2">
-        <v>6436</v>
+        <v>6363</v>
       </c>
       <c r="CD2">
-        <v>6436</v>
+        <v>6363</v>
       </c>
       <c r="CE2">
-        <v>6436</v>
+        <v>6363</v>
       </c>
       <c r="CF2">
-        <v>6436</v>
+        <v>6363</v>
       </c>
       <c r="CG2">
-        <v>6436</v>
+        <v>6363</v>
       </c>
       <c r="CH2">
-        <v>6436</v>
+        <v>6363</v>
       </c>
       <c r="CI2">
-        <v>6436</v>
+        <v>6363</v>
       </c>
       <c r="CJ2">
-        <v>6436</v>
+        <v>6363</v>
       </c>
       <c r="CK2">
-        <v>6436</v>
+        <v>6363</v>
       </c>
       <c r="CL2">
-        <v>6436</v>
+        <v>6363</v>
       </c>
       <c r="CM2">
-        <v>6436</v>
+        <v>6363</v>
       </c>
       <c r="CN2">
-        <v>6436</v>
+        <v>6363</v>
       </c>
       <c r="CO2">
-        <v>6436</v>
+        <v>6363</v>
       </c>
       <c r="CP2">
-        <v>6436</v>
+        <v>6363</v>
       </c>
       <c r="CQ2">
-        <v>6436</v>
+        <v>6363</v>
       </c>
       <c r="CR2">
-        <v>6436</v>
+        <v>6363</v>
       </c>
     </row>
     <row r="3" spans="1:96">
@@ -1268,289 +1268,289 @@
         <v>96</v>
       </c>
       <c r="B3">
-        <v>2003.615133623369</v>
+        <v>2003.665409398083</v>
       </c>
       <c r="C3">
-        <v>16.66112492231199</v>
+        <v>16.85227094137985</v>
       </c>
       <c r="D3">
-        <v>2.208514605344935</v>
+        <v>2.233851956624234</v>
       </c>
       <c r="E3">
-        <v>4.837632069608452</v>
+        <v>4.893132170359893</v>
       </c>
       <c r="F3">
-        <v>23.70727159726538</v>
+        <v>23.97925506836398</v>
       </c>
       <c r="G3">
-        <v>0.1819453076444997</v>
+        <v>0.184032688983184</v>
       </c>
       <c r="H3">
-        <v>0.09912989434431324</v>
+        <v>0.1002671695741003</v>
       </c>
       <c r="I3">
-        <v>0.1761963952765693</v>
+        <v>0.1782178217821782</v>
       </c>
       <c r="J3">
-        <v>0.2490677439403356</v>
+        <v>0.2519251925192519</v>
       </c>
       <c r="K3">
-        <v>773915296.1338983</v>
+        <v>781328509.3160094</v>
       </c>
       <c r="L3">
-        <v>52.6372830622763</v>
+        <v>52.50000685946333</v>
       </c>
       <c r="M3">
-        <v>12627.09375991233</v>
+        <v>12650.423669987</v>
       </c>
       <c r="N3">
-        <v>1.909752462999406</v>
+        <v>1.906831848776937</v>
       </c>
       <c r="O3">
-        <v>46.4969554448147</v>
+        <v>46.37519598804038</v>
       </c>
       <c r="P3">
-        <v>22.47184326212726</v>
+        <v>22.37753567237922</v>
       </c>
       <c r="Q3">
-        <v>7.389221799027233</v>
+        <v>7.385098808110962</v>
       </c>
       <c r="R3">
-        <v>10.65957456330615</v>
+        <v>10.62532596924544</v>
       </c>
       <c r="S3">
-        <v>9.184844558291685</v>
+        <v>9.171135717285772</v>
       </c>
       <c r="T3">
-        <v>5.844539657892106</v>
+        <v>5.885053026848564</v>
       </c>
       <c r="U3">
-        <v>6.533884652747824</v>
+        <v>6.577177228630174</v>
       </c>
       <c r="V3">
-        <v>6.043425012138489</v>
+        <v>6.089710456999254</v>
       </c>
       <c r="W3">
-        <v>34.92265826134442</v>
+        <v>34.96226698412895</v>
       </c>
       <c r="X3">
-        <v>35.54496479490808</v>
+        <v>35.58309163445347</v>
       </c>
       <c r="Y3">
-        <v>35.21498368085749</v>
+        <v>35.25374069621229</v>
       </c>
       <c r="Z3">
-        <v>4.811433260815984</v>
+        <v>4.812576711943007</v>
       </c>
       <c r="AA3">
-        <v>94.73087911275107</v>
+        <v>94.71509804775724</v>
       </c>
       <c r="AB3">
-        <v>95.96736969701271</v>
+        <v>95.95477796911827</v>
       </c>
       <c r="AC3">
-        <v>95.31942553527014</v>
+        <v>95.30499918529621</v>
       </c>
       <c r="AD3">
-        <v>80.68631601834171</v>
+        <v>80.50891716078065</v>
       </c>
       <c r="AE3">
-        <v>84.64412703683342</v>
+        <v>84.49134984791397</v>
       </c>
       <c r="AF3">
-        <v>79.90320840445339</v>
+        <v>79.71953018357129</v>
       </c>
       <c r="AG3">
-        <v>92.26581441755184</v>
+        <v>92.17744559512816</v>
       </c>
       <c r="AH3">
-        <v>34.72413999353964</v>
+        <v>34.70706039748132</v>
       </c>
       <c r="AI3">
-        <v>17.99293180556127</v>
+        <v>17.99947887381424</v>
       </c>
       <c r="AJ3">
-        <v>13.53624633507051</v>
+        <v>13.49760526727714</v>
       </c>
       <c r="AK3">
-        <v>28.143823263768</v>
+        <v>28.30666116261696</v>
       </c>
       <c r="AL3">
-        <v>6.931923086905543</v>
+        <v>6.93570012180702</v>
       </c>
       <c r="AM3">
-        <v>11.27930803708798</v>
+        <v>11.2819153064118</v>
       </c>
       <c r="AN3">
-        <v>0.8697875402026157</v>
+        <v>0.8796504127378669</v>
       </c>
       <c r="AO3">
-        <v>0.4348422100420973</v>
+        <v>0.4383575843340352</v>
       </c>
       <c r="AP3">
-        <v>3.081671670525538</v>
+        <v>3.048253166768836</v>
       </c>
       <c r="AQ3">
-        <v>389.9260213191847</v>
+        <v>393.1982576638997</v>
       </c>
       <c r="AR3">
-        <v>7.106026296564737</v>
+        <v>7.111622854279283</v>
       </c>
       <c r="AS3">
-        <v>44.12960456962931</v>
+        <v>44.09315029272705</v>
       </c>
       <c r="AT3">
-        <v>43.28861161386418</v>
+        <v>43.22409970862439</v>
       </c>
       <c r="AU3">
-        <v>56.71138838613562</v>
+        <v>56.77590029137541</v>
       </c>
       <c r="AV3">
-        <v>86.18983428290713</v>
+        <v>86.17622132742052</v>
       </c>
       <c r="AW3">
-        <v>7.482752296326938</v>
+        <v>7.506162223087447</v>
       </c>
       <c r="AX3">
-        <v>0.2499325928627512</v>
+        <v>0.2486635874879184</v>
       </c>
       <c r="AY3">
-        <v>5.986798726195835</v>
+        <v>5.99528185496052</v>
       </c>
       <c r="AZ3">
-        <v>7.074005593536347</v>
+        <v>7.126481219550516</v>
       </c>
       <c r="BA3">
-        <v>2.671189827848933</v>
+        <v>2.68230292126729</v>
       </c>
       <c r="BB3">
-        <v>1.477763676540427</v>
+        <v>1.489408413025134</v>
       </c>
       <c r="BC3">
-        <v>0.6491526856253348</v>
+        <v>0.6512125115398848</v>
       </c>
       <c r="BD3">
-        <v>0.698823124693727</v>
+        <v>0.7005294532426831</v>
       </c>
       <c r="BE3">
-        <v>20.16558096839537</v>
+        <v>20.12217297289875</v>
       </c>
       <c r="BF3">
-        <v>21.64060232978292</v>
+        <v>21.80078287603951</v>
       </c>
       <c r="BG3">
-        <v>49.09483005673559</v>
+        <v>49.38384801554938</v>
       </c>
       <c r="BH3">
-        <v>4290.297092248931</v>
+        <v>5484.178370041061</v>
       </c>
       <c r="BI3">
-        <v>8.073113750452906</v>
+        <v>8.02000924447384</v>
       </c>
       <c r="BJ3">
-        <v>15.74280719113974</v>
+        <v>15.66973468852125</v>
       </c>
       <c r="BK3">
-        <v>32.30357026431045</v>
+        <v>32.4286046305465</v>
       </c>
       <c r="BL3">
-        <v>57.63128155502724</v>
+        <v>57.79002329980735</v>
       </c>
       <c r="BM3">
-        <v>79.00330184080907</v>
+        <v>79.01613118301951</v>
       </c>
       <c r="BN3">
-        <v>68.52384438844449</v>
+        <v>68.61078453870586</v>
       </c>
       <c r="BO3">
-        <v>29586807.00194487</v>
+        <v>29834279.56991207</v>
       </c>
       <c r="BP3">
-        <v>37.3104627746583</v>
+        <v>37.32878010991195</v>
       </c>
       <c r="BQ3">
-        <v>29.87160469399436</v>
+        <v>29.82451895364417</v>
       </c>
       <c r="BR3">
-        <v>2.432447717756432</v>
+        <v>2.41777783094783</v>
       </c>
       <c r="BS3">
-        <v>85563.13896818641</v>
+        <v>83662.90530774828</v>
       </c>
       <c r="BT3">
-        <v>576275.965835558</v>
+        <v>575389.5065372199</v>
       </c>
       <c r="BU3">
-        <v>1.412955975534324</v>
+        <v>1.387385780206527</v>
       </c>
       <c r="BV3">
-        <v>1.362430236171524</v>
+        <v>1.370249567813912</v>
       </c>
       <c r="BW3">
-        <v>0.814472187694237</v>
+        <v>0.8172329090052028</v>
       </c>
       <c r="BX3">
-        <v>19.03969779366047</v>
+        <v>19.20236680810917</v>
       </c>
       <c r="BY3">
-        <v>60573.68349906772</v>
+        <v>61177.69275498976</v>
       </c>
       <c r="BZ3">
-        <v>37.61521193287765</v>
+        <v>37.61849253496781</v>
       </c>
       <c r="CA3">
-        <v>2.94980189558729</v>
+        <v>2.967401382995412</v>
       </c>
       <c r="CB3">
-        <v>45.80056246115554</v>
+        <v>45.72881030960193</v>
       </c>
       <c r="CC3">
-        <v>53.01383631914173</v>
+        <v>52.90985014144222</v>
       </c>
       <c r="CD3">
-        <v>5135.206960845246</v>
+        <v>5194.12101210121</v>
       </c>
       <c r="CE3">
-        <v>4.811069892588336</v>
+        <v>4.837244886096741</v>
       </c>
       <c r="CF3">
-        <v>56.69460845245494</v>
+        <v>56.15558698727015</v>
       </c>
       <c r="CG3">
-        <v>3.62585858121481</v>
+        <v>3.628849475127073</v>
       </c>
       <c r="CH3">
-        <v>2.892530377452146</v>
+        <v>2.892963354093241</v>
       </c>
       <c r="CI3">
-        <v>2.996284177540913</v>
+        <v>2.996230545370887</v>
       </c>
       <c r="CJ3">
-        <v>0.240366687383468</v>
+        <v>0.2428099952852428</v>
       </c>
       <c r="CK3">
-        <v>0.2301118707271597</v>
+        <v>0.231966053748232</v>
       </c>
       <c r="CL3">
-        <v>0.2207893101305158</v>
+        <v>0.2223793807952224</v>
       </c>
       <c r="CM3">
-        <v>0.2004350528278434</v>
+        <v>0.2021059248782021</v>
       </c>
       <c r="CN3">
-        <v>0.1535114978247359</v>
+        <v>0.1551155115511551</v>
       </c>
       <c r="CO3">
-        <v>0.175419515226849</v>
+        <v>0.1771177117711771</v>
       </c>
       <c r="CP3">
-        <v>0.0966438781852082</v>
+        <v>0.09759547383309759</v>
       </c>
       <c r="CQ3">
-        <v>0.170758234928527</v>
+        <v>0.1724029545811724</v>
       </c>
       <c r="CR3">
-        <v>0.6967060285891858</v>
+        <v>0.7046990413327047</v>
       </c>
     </row>
     <row r="4" spans="1:96">
@@ -1558,289 +1558,289 @@
         <v>97</v>
       </c>
       <c r="B4">
-        <v>8.615950640334916</v>
+        <v>8.611188709191429</v>
       </c>
       <c r="C4">
-        <v>108.0313948393511</v>
+        <v>108.6345962416109</v>
       </c>
       <c r="D4">
-        <v>18.36318473884262</v>
+        <v>18.46670465476004</v>
       </c>
       <c r="E4">
-        <v>23.16466955055844</v>
+        <v>23.29136056972497</v>
       </c>
       <c r="F4">
-        <v>124.02383690713</v>
+        <v>124.7072051902058</v>
       </c>
       <c r="G4">
-        <v>0.3858294216596529</v>
+        <v>0.3875413032719174</v>
       </c>
       <c r="H4">
-        <v>0.2988595591850879</v>
+        <v>0.3003795005638221</v>
       </c>
       <c r="I4">
-        <v>0.3810167740285648</v>
+        <v>0.382726077307692</v>
       </c>
       <c r="J4">
-        <v>0.4325067257587207</v>
+        <v>0.4341526373051722</v>
       </c>
       <c r="K4">
-        <v>37230494809.19813</v>
+        <v>37443356617.94823</v>
       </c>
       <c r="L4">
-        <v>28.70635447573865</v>
+        <v>28.75495163232748</v>
       </c>
       <c r="M4">
-        <v>19049.34722242456</v>
+        <v>19132.70986577337</v>
       </c>
       <c r="N4">
-        <v>5.92825909925766</v>
+        <v>5.942056259549194</v>
       </c>
       <c r="O4">
-        <v>30.25682650708872</v>
+        <v>30.2882144698532</v>
       </c>
       <c r="P4">
-        <v>345.4401151519793</v>
+        <v>346.9295985814717</v>
       </c>
       <c r="Q4">
-        <v>10.79375866906321</v>
+        <v>10.80674025164627</v>
       </c>
       <c r="R4">
-        <v>11.35238938923381</v>
+        <v>11.37246986741931</v>
       </c>
       <c r="S4">
-        <v>9.239734013830137</v>
+        <v>9.258537305153384</v>
       </c>
       <c r="T4">
-        <v>11.43255537514264</v>
+        <v>11.48663479233704</v>
       </c>
       <c r="U4">
-        <v>12.13702587526519</v>
+        <v>12.19404099948116</v>
       </c>
       <c r="V4">
-        <v>10.19251819707755</v>
+        <v>10.23597282832863</v>
       </c>
       <c r="W4">
-        <v>11.57199987113848</v>
+        <v>11.62031949110339</v>
       </c>
       <c r="X4">
-        <v>12.47248289135636</v>
+        <v>12.52473765089209</v>
       </c>
       <c r="Y4">
-        <v>11.93174609063236</v>
+        <v>11.98240799900714</v>
       </c>
       <c r="Z4">
-        <v>1.516914210289127</v>
+        <v>1.523318482356165</v>
       </c>
       <c r="AA4">
-        <v>10.2617815392483</v>
+        <v>10.31000393859597</v>
       </c>
       <c r="AB4">
-        <v>6.911777249094695</v>
+        <v>6.948085695226022</v>
       </c>
       <c r="AC4">
-        <v>8.593823925197309</v>
+        <v>8.637141088515429</v>
       </c>
       <c r="AD4">
-        <v>33.23416885673284</v>
+        <v>33.35953364856889</v>
       </c>
       <c r="AE4">
-        <v>27.65774003927784</v>
+        <v>27.77611048999619</v>
       </c>
       <c r="AF4">
-        <v>33.67398239705425</v>
+        <v>33.81196235117936</v>
       </c>
       <c r="AG4">
-        <v>17.24348326691763</v>
+        <v>17.32226191755346</v>
       </c>
       <c r="AH4">
-        <v>22.62522958769949</v>
+        <v>22.5099656114894</v>
       </c>
       <c r="AI4">
-        <v>144.8082049742165</v>
+        <v>145.5733911060351</v>
       </c>
       <c r="AJ4">
-        <v>12.55313522393209</v>
+        <v>12.59651278153681</v>
       </c>
       <c r="AK4">
-        <v>24.78842236222778</v>
+        <v>24.79987153124481</v>
       </c>
       <c r="AL4">
-        <v>3.109143267760198</v>
+        <v>3.121247803487917</v>
       </c>
       <c r="AM4">
-        <v>48.82092882268751</v>
+        <v>49.08451683299673</v>
       </c>
       <c r="AN4">
-        <v>3.131324694297172</v>
+        <v>3.147871758706927</v>
       </c>
       <c r="AO4">
-        <v>2.402177276371273</v>
+        <v>2.415531268754409</v>
       </c>
       <c r="AP4">
-        <v>8.845336909469562</v>
+        <v>8.822110396785023</v>
       </c>
       <c r="AQ4">
-        <v>1800.898244020202</v>
+        <v>1810.930538125156</v>
       </c>
       <c r="AR4">
-        <v>3.1542917367174</v>
+        <v>3.166816486667263</v>
       </c>
       <c r="AS4">
-        <v>10.61018786211189</v>
+        <v>10.61336025414152</v>
       </c>
       <c r="AT4">
-        <v>24.42760136679677</v>
+        <v>24.55475907838601</v>
       </c>
       <c r="AU4">
-        <v>24.42760136679674</v>
+        <v>24.554759078386</v>
       </c>
       <c r="AV4">
-        <v>10.63147256203252</v>
+        <v>10.66096354556214</v>
       </c>
       <c r="AW4">
-        <v>9.754383095894784</v>
+        <v>9.806515290730122</v>
       </c>
       <c r="AX4">
-        <v>0.9106685726047109</v>
+        <v>0.9073195527809859</v>
       </c>
       <c r="AY4">
-        <v>10.11046412177856</v>
+        <v>10.14005911417201</v>
       </c>
       <c r="AZ4">
-        <v>9.638963608506954</v>
+        <v>9.681574457974303</v>
       </c>
       <c r="BA4">
-        <v>6.585885000375966</v>
+        <v>6.617113023508077</v>
       </c>
       <c r="BB4">
-        <v>1.552145046932181</v>
+        <v>1.53453051170089</v>
       </c>
       <c r="BC4">
-        <v>0.3543041369777988</v>
+        <v>0.3547292538504717</v>
       </c>
       <c r="BD4">
-        <v>0.3591150355482411</v>
+        <v>0.3598888159774392</v>
       </c>
       <c r="BE4">
-        <v>20.0776214624076</v>
+        <v>20.14831396029532</v>
       </c>
       <c r="BF4">
-        <v>30.98244365682728</v>
+        <v>31.0626810624887</v>
       </c>
       <c r="BG4">
-        <v>53.72506932886728</v>
+        <v>53.86167346109768</v>
       </c>
       <c r="BH4">
-        <v>290060.4591952303</v>
+        <v>282420.2842144208</v>
       </c>
       <c r="BI4">
-        <v>5.691948813186388</v>
+        <v>5.621526460921071</v>
       </c>
       <c r="BJ4">
-        <v>10.32154369349315</v>
+        <v>10.2663835798958</v>
       </c>
       <c r="BK4">
-        <v>26.24620781759119</v>
+        <v>26.32838185366715</v>
       </c>
       <c r="BL4">
-        <v>16.805879621288</v>
+        <v>16.66646236013258</v>
       </c>
       <c r="BM4">
-        <v>7.443065994072231</v>
+        <v>7.453060544521985</v>
       </c>
       <c r="BN4">
-        <v>10.31358100403035</v>
+        <v>10.26374504615506</v>
       </c>
       <c r="BO4">
-        <v>120130551.6595493</v>
+        <v>120792578.6548875</v>
       </c>
       <c r="BP4">
-        <v>4.780279460651905</v>
+        <v>4.799776849139681</v>
       </c>
       <c r="BQ4">
-        <v>11.17225285777972</v>
+        <v>11.18728412499052</v>
       </c>
       <c r="BR4">
-        <v>2.466613234146908</v>
+        <v>2.469394021964415</v>
       </c>
       <c r="BS4">
-        <v>116107.8996491146</v>
+        <v>93991.5321857646</v>
       </c>
       <c r="BT4">
-        <v>510388.141058382</v>
+        <v>512880.7528648053</v>
       </c>
       <c r="BU4">
-        <v>1.763329990444594</v>
+        <v>1.71016186211098</v>
       </c>
       <c r="BV4">
-        <v>1.365489477868217</v>
+        <v>1.37072645109194</v>
       </c>
       <c r="BW4">
-        <v>0.919471970359553</v>
+        <v>0.9240439994529556</v>
       </c>
       <c r="BX4">
-        <v>22.77838985481263</v>
+        <v>22.84026722996224</v>
       </c>
       <c r="BY4">
-        <v>173954.355074601</v>
+        <v>174854.9964904709</v>
       </c>
       <c r="BZ4">
-        <v>26.80229770231512</v>
+        <v>26.89152088023624</v>
       </c>
       <c r="CA4">
-        <v>10.35024441213337</v>
+        <v>10.40656063406936</v>
       </c>
       <c r="CB4">
-        <v>46.69401411627788</v>
+        <v>46.65037430763039</v>
       </c>
       <c r="CC4">
-        <v>41.87176836468196</v>
+        <v>41.87957868094283</v>
       </c>
       <c r="CD4">
-        <v>29127.48713751988</v>
+        <v>29288.89612032057</v>
       </c>
       <c r="CE4">
-        <v>6.4661114307911</v>
+        <v>6.426802149109762</v>
       </c>
       <c r="CF4">
-        <v>62.04970562233728</v>
+        <v>61.9371144062665</v>
       </c>
       <c r="CG4">
-        <v>1.455428803733592</v>
+        <v>1.448099081805285</v>
       </c>
       <c r="CH4">
-        <v>0.297366678690703</v>
+        <v>0.2988215207134267</v>
       </c>
       <c r="CI4">
-        <v>0.2670879452174251</v>
+        <v>0.2685770769618086</v>
       </c>
       <c r="CJ4">
-        <v>0.4273393470984321</v>
+        <v>0.4288148786352813</v>
       </c>
       <c r="CK4">
-        <v>0.4209369649139147</v>
+        <v>0.4221206072722215</v>
       </c>
       <c r="CL4">
-        <v>0.414810952026894</v>
+        <v>0.415877353304953</v>
       </c>
       <c r="CM4">
-        <v>0.4003570243989472</v>
+        <v>0.4016023745497957</v>
       </c>
       <c r="CN4">
-        <v>0.3605078521268272</v>
+        <v>0.3620432145929337</v>
       </c>
       <c r="CO4">
-        <v>0.3803550803522779</v>
+        <v>0.3817982935312866</v>
       </c>
       <c r="CP4">
-        <v>0.2954951878198408</v>
+        <v>0.2967902298684709</v>
       </c>
       <c r="CQ4">
-        <v>0.3763268058122817</v>
+        <v>0.3777599803714995</v>
       </c>
       <c r="CR4">
-        <v>1.166215041977506</v>
+        <v>1.170482714960229</v>
       </c>
     </row>
     <row r="5" spans="1:96">
@@ -2004,7 +2004,7 @@
         <v>0</v>
       </c>
       <c r="BB5">
-        <v>-10.9551494210987</v>
+        <v>-9.080638464750979</v>
       </c>
       <c r="BC5">
         <v>0.008</v>
@@ -2022,7 +2022,7 @@
         <v>-12.81089211450671</v>
       </c>
       <c r="BH5">
-        <v>-5386986</v>
+        <v>-3266243</v>
       </c>
       <c r="BI5">
         <v>0.140000000596046</v>
@@ -2165,22 +2165,22 @@
         <v>0</v>
       </c>
       <c r="K6">
-        <v>-907861978.9311538</v>
+        <v>-924629873.387599</v>
       </c>
       <c r="L6">
-        <v>30.65677344525102</v>
+        <v>30.57270490042022</v>
       </c>
       <c r="M6">
-        <v>1155.971433636416</v>
+        <v>1147.428045284148</v>
       </c>
       <c r="N6">
         <v>-0.2139716344670715</v>
       </c>
       <c r="O6">
-        <v>24.43334005725396</v>
+        <v>24.31598063808763</v>
       </c>
       <c r="P6">
-        <v>2.018020462576835</v>
+        <v>2.007980288099295</v>
       </c>
       <c r="Q6">
         <v>2.710134415741763</v>
@@ -2192,7 +2192,7 @@
         <v>5.901086167315197</v>
       </c>
       <c r="T6">
-        <v>0.9952091432911168</v>
+        <v>0.9925965731644675</v>
       </c>
       <c r="U6">
         <v>1.586675960695475</v>
@@ -2213,7 +2213,7 @@
         <v>4.068697861312755</v>
       </c>
       <c r="AA6">
-        <v>96.82552881147541</v>
+        <v>96.83504272540983</v>
       </c>
       <c r="AB6">
         <v>97.19290143442622</v>
@@ -2222,28 +2222,28 @@
         <v>97.06060827868853</v>
       </c>
       <c r="AD6">
-        <v>78.375</v>
+        <v>77.65000000000001</v>
       </c>
       <c r="AE6">
-        <v>84.677505</v>
+        <v>83.89028549194335</v>
       </c>
       <c r="AF6">
-        <v>73.03552140220586</v>
+        <v>71.98599597761455</v>
       </c>
       <c r="AG6">
-        <v>95.94860076904295</v>
+        <v>95.7484588623047</v>
       </c>
       <c r="AH6">
-        <v>11.11111111111111</v>
+        <v>11.25000019868217</v>
       </c>
       <c r="AI6">
-        <v>8.320635687993796</v>
+        <v>8.390636783598392</v>
       </c>
       <c r="AJ6">
-        <v>3.844221105527638</v>
+        <v>3.727783686215417</v>
       </c>
       <c r="AK6">
-        <v>2.927622123253828</v>
+        <v>3.333333333333333</v>
       </c>
       <c r="AL6">
         <v>7.07036754</v>
@@ -2261,7 +2261,7 @@
         <v>0</v>
       </c>
       <c r="AQ6">
-        <v>31.17601877284941</v>
+        <v>30.74663933627348</v>
       </c>
       <c r="AR6">
         <v>7.069176503508332</v>
@@ -2270,16 +2270,16 @@
         <v>34.02362054588708</v>
       </c>
       <c r="AT6">
-        <v>23.48825</v>
+        <v>23.3335</v>
       </c>
       <c r="AU6">
-        <v>36.008</v>
+        <v>35.874</v>
       </c>
       <c r="AV6">
         <v>88.49397356143081</v>
       </c>
       <c r="AW6">
-        <v>5.252410575427682</v>
+        <v>5.255482115085538</v>
       </c>
       <c r="AX6">
         <v>0.006586826347304786</v>
@@ -2294,7 +2294,7 @@
         <v>0.7904191616766451</v>
       </c>
       <c r="BB6">
-        <v>0.4887158557606035</v>
+        <v>0.494142514158387</v>
       </c>
       <c r="BC6">
         <v>0.3444770857814282</v>
@@ -2303,46 +2303,46 @@
         <v>0.403556600078338</v>
       </c>
       <c r="BE6">
-        <v>2.54462529425</v>
+        <v>2.504224141</v>
       </c>
       <c r="BF6">
-        <v>0.12063297025</v>
+        <v>0.1287930705</v>
       </c>
       <c r="BG6">
-        <v>0.5445370035</v>
+        <v>0.5663516934999999</v>
       </c>
       <c r="BH6">
         <v>624.5114285714226</v>
       </c>
       <c r="BI6">
-        <v>4.21174991130829</v>
+        <v>4.18249988555908</v>
       </c>
       <c r="BJ6">
-        <v>8.441249847412106</v>
+        <v>8.36900043487549</v>
       </c>
       <c r="BK6">
         <v>8.371453747099508</v>
       </c>
       <c r="BL6">
-        <v>48.66350078582768</v>
+        <v>48.8015003204346</v>
       </c>
       <c r="BM6">
-        <v>75.7620010375977</v>
+        <v>75.7924995422363</v>
       </c>
       <c r="BN6">
-        <v>62.8035001754761</v>
+        <v>62.9775009155273</v>
       </c>
       <c r="BO6">
-        <v>571125.25</v>
+        <v>551197</v>
       </c>
       <c r="BP6">
         <v>34.73274942480653</v>
       </c>
       <c r="BQ6">
-        <v>19.4</v>
+        <v>19.18806284348356</v>
       </c>
       <c r="BR6">
-        <v>1.388480532920068</v>
+        <v>1.382368264675995</v>
       </c>
       <c r="BS6">
         <v>61054.33762057871</v>
@@ -2351,19 +2351,19 @@
         <v>248636.9497936727</v>
       </c>
       <c r="BU6">
-        <v>0.5732723376050679</v>
+        <v>0.5687374627168424</v>
       </c>
       <c r="BV6">
-        <v>0.435</v>
+        <v>0.419</v>
       </c>
       <c r="BW6">
-        <v>0.289</v>
+        <v>0.281</v>
       </c>
       <c r="BX6">
-        <v>0.5580000000000001</v>
+        <v>0.6850000000000001</v>
       </c>
       <c r="BY6">
-        <v>602</v>
+        <v>887</v>
       </c>
       <c r="BZ6">
         <v>16.794</v>
@@ -2375,7 +2375,7 @@
         <v>0</v>
       </c>
       <c r="CC6">
-        <v>10.2806</v>
+        <v>10.2759</v>
       </c>
       <c r="CD6">
         <v>0</v>
@@ -2455,22 +2455,22 @@
         <v>0</v>
       </c>
       <c r="K7">
-        <v>-58798063.59100322</v>
+        <v>-60740380.8370769</v>
       </c>
       <c r="L7">
-        <v>47.85869151947104</v>
+        <v>47.66542375787902</v>
       </c>
       <c r="M7">
-        <v>4446.9971589862</v>
+        <v>4428.566481349843</v>
       </c>
       <c r="N7">
-        <v>1.975394718895608</v>
+        <v>1.973728917834563</v>
       </c>
       <c r="O7">
-        <v>39.98665097765647</v>
+        <v>39.82075502111609</v>
       </c>
       <c r="P7">
-        <v>3.760472626645192</v>
+        <v>3.75733833344472</v>
       </c>
       <c r="Q7">
         <v>4.618296212037007</v>
@@ -2482,13 +2482,13 @@
         <v>7.30281268482488</v>
       </c>
       <c r="T7">
-        <v>1.919688721609114</v>
+        <v>1.914447466754908</v>
       </c>
       <c r="U7">
         <v>2.513528183180495</v>
       </c>
       <c r="V7">
-        <v>2.45001</v>
+        <v>2.57554</v>
       </c>
       <c r="W7">
         <v>32.07459</v>
@@ -2524,7 +2524,7 @@
         <v>99.9950597791249</v>
       </c>
       <c r="AH7">
-        <v>32.92770946812865</v>
+        <v>33.10304132962899</v>
       </c>
       <c r="AI7">
         <v>9.463845987692434</v>
@@ -2533,7 +2533,7 @@
         <v>11.11111111111111</v>
       </c>
       <c r="AK7">
-        <v>23.54005722624091</v>
+        <v>23.73004356948907</v>
       </c>
       <c r="AL7">
         <v>7.07036754</v>
@@ -2551,7 +2551,7 @@
         <v>0</v>
       </c>
       <c r="AQ7">
-        <v>82.08034446256225</v>
+        <v>81.79250957422843</v>
       </c>
       <c r="AR7">
         <v>7.070017253208333</v>
@@ -2560,10 +2560,10 @@
         <v>45.85169510577726</v>
       </c>
       <c r="AT7">
-        <v>44.0575</v>
+        <v>43.767</v>
       </c>
       <c r="AU7">
-        <v>55.9425</v>
+        <v>56.233</v>
       </c>
       <c r="AV7">
         <v>88.78580870917574</v>
@@ -2584,46 +2584,46 @@
         <v>0.9721182634730521</v>
       </c>
       <c r="BB7">
-        <v>1.35724607781796</v>
+        <v>1.35919569180063</v>
       </c>
       <c r="BC7">
-        <v>0.59</v>
+        <v>0.61</v>
       </c>
       <c r="BD7">
         <v>0.6417401096748921</v>
       </c>
       <c r="BE7">
-        <v>14.08092668</v>
+        <v>13.89106985</v>
       </c>
       <c r="BF7">
-        <v>6.3804533275</v>
+        <v>6.43319107</v>
       </c>
       <c r="BG7">
-        <v>25.926355495</v>
+        <v>26.20463882</v>
       </c>
       <c r="BH7">
-        <v>5695.025714285672</v>
+        <v>3965</v>
       </c>
       <c r="BI7">
-        <v>6.96399998664856</v>
+        <v>6.90799999237061</v>
       </c>
       <c r="BJ7">
         <v>14.36447217448788</v>
       </c>
       <c r="BK7">
-        <v>22.71400046348571</v>
+        <v>22.80999994277955</v>
       </c>
       <c r="BL7">
-        <v>62.11499977111815</v>
+        <v>62.148998260498</v>
       </c>
       <c r="BM7">
-        <v>80.23600006103521</v>
+        <v>80.22499847412109</v>
       </c>
       <c r="BN7">
-        <v>70.51149749755859</v>
+        <v>70.56199645996089</v>
       </c>
       <c r="BO7">
-        <v>5209597</v>
+        <v>5228172</v>
       </c>
       <c r="BP7">
         <v>36.70040786446349</v>
@@ -2632,25 +2632,25 @@
         <v>29.49143539080396</v>
       </c>
       <c r="BR7">
-        <v>2.28325855120758</v>
+        <v>2.269582453695973</v>
       </c>
       <c r="BS7">
         <v>75039.84244372975</v>
       </c>
       <c r="BT7">
-        <v>715939.6836313619</v>
+        <v>715222.19738652</v>
       </c>
       <c r="BU7">
         <v>0.849754441326169</v>
       </c>
       <c r="BV7">
-        <v>0.913</v>
+        <v>0.914</v>
       </c>
       <c r="BW7">
         <v>0.5570000000000001</v>
       </c>
       <c r="BX7">
-        <v>9.723000000000001</v>
+        <v>9.737</v>
       </c>
       <c r="BY7">
         <v>9150</v>
@@ -2674,7 +2674,7 @@
         <v>8</v>
       </c>
       <c r="CF7">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="CG7">
         <v>4</v>
@@ -2730,7 +2730,7 @@
         <v>0</v>
       </c>
       <c r="F8">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G8">
         <v>0</v>
@@ -2742,25 +2742,25 @@
         <v>0</v>
       </c>
       <c r="J8">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K8">
         <v>300237374.710252</v>
       </c>
       <c r="L8">
-        <v>74.77554747011939</v>
+        <v>74.4235764794569</v>
       </c>
       <c r="M8">
-        <v>17483.1625195405</v>
+        <v>17516.15958762108</v>
       </c>
       <c r="N8">
-        <v>4.073017374881434</v>
+        <v>4.076341116906313</v>
       </c>
       <c r="O8">
-        <v>67.08946607569651</v>
+        <v>66.93785999218224</v>
       </c>
       <c r="P8">
-        <v>6.919843872441778</v>
+        <v>6.926274918432875</v>
       </c>
       <c r="Q8">
         <v>6.475124241666396</v>
@@ -2772,7 +2772,7 @@
         <v>8.755818443579777</v>
       </c>
       <c r="T8">
-        <v>3.774959943752287</v>
+        <v>3.84657</v>
       </c>
       <c r="U8">
         <v>3.610606182621842</v>
@@ -2814,16 +2814,16 @@
         <v>100</v>
       </c>
       <c r="AH8">
-        <v>53.31276394124988</v>
+        <v>53.15875851282513</v>
       </c>
       <c r="AI8">
         <v>12.97801114131116</v>
       </c>
       <c r="AJ8">
-        <v>17.67078127601959</v>
+        <v>17.59305075400227</v>
       </c>
       <c r="AK8">
-        <v>46.30537957043789</v>
+        <v>46.32307105498268</v>
       </c>
       <c r="AL8">
         <v>7.07036754</v>
@@ -2832,16 +2832,16 @@
         <v>9.685994666666668</v>
       </c>
       <c r="AN8">
-        <v>0.1551491923121045</v>
+        <v>0.1596863838587615</v>
       </c>
       <c r="AO8">
-        <v>0.04661962817293445</v>
+        <v>0.04659831037726145</v>
       </c>
       <c r="AP8">
-        <v>0.5373612947904209</v>
+        <v>0.536046315050835</v>
       </c>
       <c r="AQ8">
-        <v>206.004193946375</v>
+        <v>208.7013353567164</v>
       </c>
       <c r="AR8">
         <v>7.070287518933333</v>
@@ -2850,10 +2850,10 @@
         <v>51.20034183541431</v>
       </c>
       <c r="AT8">
-        <v>63.992</v>
+        <v>64.12599999999999</v>
       </c>
       <c r="AU8">
-        <v>76.51174999999999</v>
+        <v>76.6665</v>
       </c>
       <c r="AV8">
         <v>88.9276438569207</v>
@@ -2868,13 +2868,13 @@
         <v>3.291991017964078</v>
       </c>
       <c r="AZ8">
-        <v>6.025</v>
+        <v>6.15</v>
       </c>
       <c r="BA8">
         <v>1.01014221556886</v>
       </c>
       <c r="BB8">
-        <v>2.419709116799452</v>
+        <v>2.420838526403265</v>
       </c>
       <c r="BC8">
         <v>0.8926978065021498</v>
@@ -2883,37 +2883,37 @@
         <v>0.9160027418723085</v>
       </c>
       <c r="BE8">
-        <v>35.281319945</v>
+        <v>35.28230175</v>
       </c>
       <c r="BF8">
-        <v>39.67490678</v>
+        <v>40.04499839</v>
       </c>
       <c r="BG8">
-        <v>94.9906243275</v>
+        <v>95.584823695</v>
       </c>
       <c r="BH8">
         <v>8335.488571428577</v>
       </c>
       <c r="BI8">
-        <v>9.68500018119812</v>
+        <v>9.678000450134279</v>
       </c>
       <c r="BJ8">
-        <v>19.22350025177</v>
+        <v>19.2250003814697</v>
       </c>
       <c r="BK8">
-        <v>51.88499879837038</v>
+        <v>52.16699886322021</v>
       </c>
       <c r="BL8">
-        <v>69.79974746704103</v>
+        <v>69.82848856789727</v>
       </c>
       <c r="BM8">
-        <v>83.6264991760254</v>
+        <v>83.62799835205081</v>
       </c>
       <c r="BN8">
         <v>75.85294340725603</v>
       </c>
       <c r="BO8">
-        <v>17966410</v>
+        <v>18110640.5</v>
       </c>
       <c r="BP8">
         <v>37.95233214808616</v>
@@ -2931,16 +2931,16 @@
         <v>720962.0873452546</v>
       </c>
       <c r="BU8">
-        <v>1.47237974126406</v>
+        <v>1.466762238791199</v>
       </c>
       <c r="BV8">
-        <v>1.96</v>
+        <v>1.988</v>
       </c>
       <c r="BW8">
-        <v>1.002</v>
+        <v>1.03</v>
       </c>
       <c r="BX8">
-        <v>31.49</v>
+        <v>33.06</v>
       </c>
       <c r="BY8">
         <v>45286</v>
@@ -2967,13 +2967,13 @@
         <v>140.5</v>
       </c>
       <c r="CG8">
-        <v>4.990545050055616</v>
+        <v>4.981535038932147</v>
       </c>
       <c r="CH8">
         <v>3</v>
       </c>
       <c r="CI8">
-        <v>3.043394498710417</v>
+        <v>3.070408739363782</v>
       </c>
       <c r="CJ8">
         <v>0</v>
@@ -3215,7 +3215,7 @@
         <v>117.34982320869</v>
       </c>
       <c r="BS9">
-        <v>3500000</v>
+        <v>3000000</v>
       </c>
       <c r="BT9">
         <v>18660000</v>
